--- a/【！！！】Reference汇总大整理.xlsx
+++ b/【！！！】Reference汇总大整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>百家号, "中国留守儿童现状," 4 7 2018. [Online]. Available: https://baijiahao.baidu.com/s?id=1605060400688912953&amp;wfr=spider&amp;for=pc. [Accessed 12 11 2018].</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,43 +31,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"想家宝智能陪伴远程视频神器 把爱带在身边," 3 3 2016. [Online]. Available: https://www.sohu.com/a/61684208_116463. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿欧, "儿童陪伴机器人千亿市场，出货量10万台，阿凡达CEO亲述行业难点何在," 29 8 2017. [Online]. Available: https://www.iyiou.com/p/53924. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国新闻网, "中国到2020年独居和空巢老人将增至1.18亿人," 6 3 2017. [Online]. Available: https://news.qq.com/a/20170306/030741.htm. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄龙玉, "农村空巢老人的生活困境及应对措施," 12 4 2017. [Online]. Available: http://www.fx361.com/page/2017/0412/1490548.shtml. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环球网, "十年内服务老年人的护理机器人或将走入家庭," 29 8 2017. [Online]. Available: http://tech.sina.com.cn/roll/2017-08-29/doc-ifykiurx2777530.shtml. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【沿革史】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在这里加行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现状::市场分析::远程陪伴】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现状::市场分析::远程科考】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法伊莎, "我校开展四大沙漠联合科学考察," 19 9 2012. [Online]. Available: http://news.lzu.edu.cn/c/201209/4a49801939db268a0139ddbe051b0037.html. [Accessed 13 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现状::技术分析::动作捕捉】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Toshev, "DeepPose: Human Pose Estimation via Deep Neural Networks," in CVPR, 2014. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯数码, "Kinect兴衰史 为何微软要放弃这种最有前途的产品," 18 1 2018. [Online]. Available: http://digi.tech.qq.com/a/20180118/022609.htm. [Accessed 6 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Avalos, "Telepresence Using the Kinect Sensor and the NAO Robot," in Latin American Symposium on Circuits and Systems (LASCAS), 2016. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Avalos, "Real-time Teleoperation with the Baxter Robot and the Kinect Sensor," in 2017 IEEE 3rd Colombian Conference on Automatic Control (CCAC), 2017. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现状::案例分析::Double Robot】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I. © 2018 Double Robotics, “Double,” © 2018 Double Robotics, Inc. , 2018. [联机]. Available: http://www.doublerobotics.com/. [访问日期: 23 10 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anonymous, “Double Robotics称它们自2013年以来已经销售了8000个机器人,” 18 1 2017. [联机]. Available: http://www.gbs.cn/info/detail/44-48793.html. [访问日期: 23 10 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家号, “「Double Robotics」北京京西学校成为首所提供交互式机器人的国际学校,” 17 4 2017. [联机]. Available: https://baijiahao.baidu.com/s?id=1564019051116937&amp;wfr=spider&amp;for=pc. [访问日期: 23 10 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【请在这里加标签】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>网易科技报道, "小鱼在家陪伴机器人体验：远程陪伴的新维度," 1 6 2015. [Online]. Available: http://tech.163.com/15/0601/17/AR1TBA8A00094P0U.html. [Accessed 13 11 2018].</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"想家宝智能陪伴远程视频神器 把爱带在身边," 3 3 2016. [Online]. Available: https://www.sohu.com/a/61684208_116463. [Accessed 13 11 2018].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿欧, "儿童陪伴机器人千亿市场，出货量10万台，阿凡达CEO亲述行业难点何在," 29 8 2017. [Online]. Available: https://www.iyiou.com/p/53924. [Accessed 13 11 2018].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国新闻网, "中国到2020年独居和空巢老人将增至1.18亿人," 6 3 2017. [Online]. Available: https://news.qq.com/a/20170306/030741.htm. [Accessed 13 11 2018].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄龙玉, "农村空巢老人的生活困境及应对措施," 12 4 2017. [Online]. Available: http://www.fx361.com/page/2017/0412/1490548.shtml. [Accessed 13 11 2018].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环球网, "十年内服务老年人的护理机器人或将走入家庭," 29 8 2017. [Online]. Available: http://tech.sina.com.cn/roll/2017-08-29/doc-ifykiurx2777530.shtml. [Accessed 13 11 2018].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【沿革史】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请在这里加行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【现状::市场分析::远程陪伴】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【现状::市场分析::远程科考】</t>
+    <t>【请在这里加标签】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【请在这里加标签】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【现状::案例分析::Dexmo】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. Robotics, “Dexmo DK1,” 11 12 2018. [联机]. Available: https://www.dextarobotics.com/#meettheteam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR陀螺, “VR力反馈手套Dexmo开发商获数千万元融资，今年目标营收超千万,” 10 4 2018. [联机]. Available: https://baijiahao.baidu.com/s?id=1597328256716495187&amp;wfr=spider&amp;for=pc. [访问日期: 11 12 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DextaRobotics, “Dexmo测试者反馈,” 4 7 2017. [联机]. Available: https://v.youku.com/v_show/id_XMjg2NzQ5MjM0NA==.html?spm=a2h0j.11185381.listitem_page1.5!3~A.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,9 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -438,17 +509,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -473,37 +544,122 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/【！！！】Reference汇总大整理.xlsx
+++ b/【！！！】Reference汇总大整理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>百家号, "中国留守儿童现状," 4 7 2018. [Online]. Available: https://baijiahao.baidu.com/s?id=1605060400688912953&amp;wfr=spider&amp;for=pc. [Accessed 12 11 2018].</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>DextaRobotics, “Dexmo测试者反馈,” 4 7 2017. [联机]. Available: https://v.youku.com/v_show/id_XMjg2NzQ5MjM0NA==.html?spm=a2h0j.11185381.listitem_page1.5!3~A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【未来】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">叶劲松, 刘鲁江.“遥科学技术及在深空探测的应用设想,” 出处 中国宇航学会深空探测技术专业委员会学术会议, 2005. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹. DeepTech深科技, ““上帝之手”出现？这双手是这名男子的杰作，30年只为机器打造“神之手” | 独家专访,” 4 10 2018. [联机]. Available: http://www.mittrchina.com/news/2888. [访问日期: 1 11 2018].</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -662,6 +674,21 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/【！！！】Reference汇总大整理.xlsx
+++ b/【！！！】Reference汇总大整理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7D6CD-3406-4051-A4C0-541B312A5E0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>百家号, "中国留守儿童现状," 4 7 2018. [Online]. Available: https://baijiahao.baidu.com/s?id=1605060400688912953&amp;wfr=spider&amp;for=pc. [Accessed 12 11 2018].</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,13 +149,25 @@
   </si>
   <si>
     <t>詹. DeepTech深科技, ““上帝之手”出现？这双手是这名男子的杰作，30年只为机器打造“神之手” | 独家专访,” 4 10 2018. [联机]. Available: http://www.mittrchina.com/news/2888. [访问日期: 1 11 2018].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【专利】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web of science, https://apps.webofknowledge.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万方知识服务平台，http://g.wanfangdata.com.cn/navigations/patent.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,186 +554,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="167.81640625" customWidth="1"/>
+    <col min="1" max="1" width="167.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
